--- a/cases/case_user.xlsx
+++ b/cases/case_user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,11 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +728,7 @@
         <v>47</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="94.5">
@@ -759,7 +755,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="10"/>
       <c r="N3" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42">

--- a/cases/case_user.xlsx
+++ b/cases/case_user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"17711794059"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,11 +252,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,7 +720,7 @@
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="135">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -740,33 +732,30 @@
         <v>14</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="94.5">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -788,12 +777,12 @@
       <c r="L3" s="7"/>
       <c r="M3" s="10"/>
       <c r="N3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -809,18 +798,18 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.5">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -837,15 +826,15 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.5">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -866,13 +855,13 @@
       <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
-        <v>57</v>
+      <c r="N6" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.5">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -893,13 +882,13 @@
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N7" t="s">
-        <v>57</v>
+      <c r="N7" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.5">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -917,13 +906,13 @@
       <c r="K8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N8" t="s">
-        <v>57</v>
+      <c r="N8" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="69" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -942,15 +931,15 @@
         <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="1" t="s">
-        <v>58</v>
+      <c r="N9" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/cases/case_user.xlsx
+++ b/cases/case_user.xlsx
@@ -243,16 +243,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>payload.tasks.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>err_code=0
-payload.tasks=id=(249161,249166,249158)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payload.tasks.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+payload.tasks=id=(261564)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +652,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>56</v>
